--- a/Contents/2023MathorCup/C-Solution/Data/goal_predict.xlsx
+++ b/Contents/2023MathorCup/C-Solution/Data/goal_predict.xlsx
@@ -190,97 +190,97 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>27197.32981544812</v>
+        <v>35033.686609088632</v>
       </c>
       <c r="C2" s="0">
-        <v>23993.960851979416</v>
+        <v>29458.178043470325</v>
       </c>
       <c r="D2" s="0">
-        <v>31093.850713556734</v>
+        <v>20289.628793380485</v>
       </c>
       <c r="E2" s="0">
-        <v>39961.866887255266</v>
+        <v>42792.888581318432</v>
       </c>
       <c r="F2" s="0">
-        <v>18680.840660563263</v>
+        <v>12318.64933850122</v>
       </c>
       <c r="G2" s="0">
-        <v>37415.154216188668</v>
+        <v>26218.211018955644</v>
       </c>
       <c r="H2" s="0">
-        <v>16188.722247454336</v>
+        <v>31247.904675780232</v>
       </c>
       <c r="I2" s="0">
-        <v>22422.816027454952</v>
+        <v>17834.20758820753</v>
       </c>
       <c r="J2" s="0">
-        <v>20145.054486595502</v>
+        <v>43727.165232287189</v>
       </c>
       <c r="K2" s="0">
-        <v>28353.377447986233</v>
+        <v>22424.433871965855</v>
       </c>
       <c r="L2" s="0">
-        <v>25462.649989762529</v>
+        <v>37438.635201039673</v>
       </c>
       <c r="M2" s="0">
-        <v>36626.492942948913</v>
+        <v>40339.733896631296</v>
       </c>
       <c r="N2" s="0">
-        <v>28244.11293195709</v>
+        <v>45989.856173490058</v>
       </c>
       <c r="O2" s="0">
-        <v>25673.338890861865</v>
+        <v>15450.68066507935</v>
       </c>
       <c r="P2" s="0">
-        <v>24215.043872316866</v>
+        <v>39545.319669176097</v>
       </c>
       <c r="Q2" s="0">
-        <v>28469.961543556692</v>
+        <v>21293.72636386018</v>
       </c>
       <c r="R2" s="0">
-        <v>11897.548726544945</v>
+        <v>20762.99252358501</v>
       </c>
       <c r="S2" s="0">
-        <v>31468.566995795707</v>
+        <v>33579.628572229107</v>
       </c>
       <c r="T2" s="0">
-        <v>17567.729531349571</v>
+        <v>23289.340410710978</v>
       </c>
       <c r="U2" s="0">
-        <v>17502.811272526196</v>
+        <v>35220.25950695033</v>
       </c>
       <c r="V2" s="0">
-        <v>27018.07627399384</v>
+        <v>24283.921817850416</v>
       </c>
       <c r="W2" s="0">
-        <v>27077.52241513391</v>
+        <v>29349.981092865353</v>
       </c>
       <c r="X2" s="0">
-        <v>21599.870760874248</v>
+        <v>20102.855313631779</v>
       </c>
       <c r="Y2" s="0">
-        <v>31228.367743996401</v>
+        <v>19973.56475653443</v>
       </c>
       <c r="Z2" s="0">
-        <v>34566.493225045408</v>
+        <v>27815.640441617074</v>
       </c>
       <c r="AA2" s="0">
-        <v>30415.027230494259</v>
+        <v>26916.242461167076</v>
       </c>
       <c r="AB2" s="0">
-        <v>31895.499971929879</v>
+        <v>31688.11592154242</v>
       </c>
       <c r="AC2" s="0">
-        <v>24518.486088028272</v>
+        <v>39709.891596583948</v>
       </c>
       <c r="AD2" s="0">
-        <v>25627.860770211497</v>
+        <v>31740.764247892457</v>
       </c>
       <c r="AE2" s="0">
-        <v>27258.630217013542</v>
+        <v>15847.746157395297</v>
       </c>
       <c r="AF2" s="0">
-        <v>16812.606704264253</v>
+        <v>39665.846027558895</v>
       </c>
     </row>
     <row r="3">
@@ -288,97 +288,97 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>46.926073585246542</v>
+        <v>46.236464358967247</v>
       </c>
       <c r="C3" s="0">
-        <v>21.324771788271782</v>
+        <v>42.188665507154937</v>
       </c>
       <c r="D3" s="0">
-        <v>39.178747149804209</v>
+        <v>24.34696747321928</v>
       </c>
       <c r="E3" s="0">
-        <v>39.41528069149647</v>
+        <v>39.465237569550744</v>
       </c>
       <c r="F3" s="0">
-        <v>47.850874000418855</v>
+        <v>41.781501410776713</v>
       </c>
       <c r="G3" s="0">
-        <v>20.020113091935833</v>
+        <v>11.091557890451714</v>
       </c>
       <c r="H3" s="0">
-        <v>28.86333539996026</v>
+        <v>24.391632604784064</v>
       </c>
       <c r="I3" s="0">
-        <v>48.954419962930871</v>
+        <v>32.62025464851375</v>
       </c>
       <c r="J3" s="0">
-        <v>48.831865972503408</v>
+        <v>43.862611634967308</v>
       </c>
       <c r="K3" s="0">
-        <v>16.478187447378282</v>
+        <v>49.18613860128302</v>
       </c>
       <c r="L3" s="0">
-        <v>44.44754956512876</v>
+        <v>42.612455264373601</v>
       </c>
       <c r="M3" s="0">
-        <v>51.90871257119025</v>
+        <v>63.008213838177021</v>
       </c>
       <c r="N3" s="0">
-        <v>50.890149904138056</v>
+        <v>39.663434927405369</v>
       </c>
       <c r="O3" s="0">
-        <v>49.073349915175427</v>
+        <v>53.863582387403888</v>
       </c>
       <c r="P3" s="0">
-        <v>36.250348539769732</v>
+        <v>65.792199938084408</v>
       </c>
       <c r="Q3" s="0">
-        <v>25.193256784116208</v>
+        <v>41.399787207756333</v>
       </c>
       <c r="R3" s="0">
-        <v>39.109922318173751</v>
+        <v>30.233187996059705</v>
       </c>
       <c r="S3" s="0">
-        <v>49.959736982522628</v>
+        <v>23.870528615007082</v>
       </c>
       <c r="T3" s="0">
-        <v>25.380441585302147</v>
+        <v>53.265645532803305</v>
       </c>
       <c r="U3" s="0">
-        <v>54.17305347169733</v>
+        <v>45.177861821828408</v>
       </c>
       <c r="V3" s="0">
-        <v>45.691789885740349</v>
+        <v>66.206140969552209</v>
       </c>
       <c r="W3" s="0">
-        <v>58.1658837734619</v>
+        <v>43.526641722829865</v>
       </c>
       <c r="X3" s="0">
-        <v>35.51150123933197</v>
+        <v>39.927685627517917</v>
       </c>
       <c r="Y3" s="0">
-        <v>52.224844028007816</v>
+        <v>65.340229579944861</v>
       </c>
       <c r="Z3" s="0">
-        <v>42.140010410978462</v>
+        <v>48.073228134055483</v>
       </c>
       <c r="AA3" s="0">
-        <v>53.950989748217779</v>
+        <v>64.232481832947713</v>
       </c>
       <c r="AB3" s="0">
-        <v>41.478198784772154</v>
+        <v>76.929838911093384</v>
       </c>
       <c r="AC3" s="0">
-        <v>96.002657926610425</v>
+        <v>79.878869416914938</v>
       </c>
       <c r="AD3" s="0">
-        <v>58.35794897507926</v>
+        <v>77.301541641055337</v>
       </c>
       <c r="AE3" s="0">
-        <v>56.918646100459256</v>
+        <v>57.83496673843289</v>
       </c>
       <c r="AF3" s="0">
-        <v>90.827084567811468</v>
+        <v>83.281469076523109</v>
       </c>
     </row>
     <row r="4">
@@ -386,97 +386,97 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>1706.1095086929913</v>
+        <v>8628.2624221939459</v>
       </c>
       <c r="C4" s="0">
-        <v>2915.1825676408721</v>
+        <v>11052.860904390975</v>
       </c>
       <c r="D4" s="0">
-        <v>1932.2857132088939</v>
+        <v>6431.691529928843</v>
       </c>
       <c r="E4" s="0">
-        <v>2974.0521724476766</v>
+        <v>8398.6163812003033</v>
       </c>
       <c r="F4" s="0">
-        <v>3595.3451459067146</v>
+        <v>6881.1087428052788</v>
       </c>
       <c r="G4" s="0">
-        <v>2142.8713809295905</v>
+        <v>7022.2529340422461</v>
       </c>
       <c r="H4" s="0">
-        <v>1938.0223438009302</v>
+        <v>8579.8125785666161</v>
       </c>
       <c r="I4" s="0">
-        <v>2759.3984334379802</v>
+        <v>9073.9138303053242</v>
       </c>
       <c r="J4" s="0">
-        <v>2364.2784951495833</v>
+        <v>5199.2929620218292</v>
       </c>
       <c r="K4" s="0">
-        <v>1405.5740664185473</v>
+        <v>10220.621111937749</v>
       </c>
       <c r="L4" s="0">
-        <v>2797.0673868362892</v>
+        <v>11162.524635284664</v>
       </c>
       <c r="M4" s="0">
-        <v>2460.8504920459154</v>
+        <v>7269.5622756617558</v>
       </c>
       <c r="N4" s="0">
-        <v>1898.5174985824005</v>
+        <v>9639.8370793190697</v>
       </c>
       <c r="O4" s="0">
-        <v>2401.87929022755</v>
+        <v>7082.5307844012495</v>
       </c>
       <c r="P4" s="0">
-        <v>1666.3003565396371</v>
+        <v>9582.9094399732112</v>
       </c>
       <c r="Q4" s="0">
-        <v>2080.7958525075533</v>
+        <v>9305.4260412565018</v>
       </c>
       <c r="R4" s="0">
-        <v>1285.0644696279817</v>
+        <v>10930.391003565284</v>
       </c>
       <c r="S4" s="0">
-        <v>2411.6480913673922</v>
+        <v>12287.191882864861</v>
       </c>
       <c r="T4" s="0">
-        <v>1891.3512638702118</v>
+        <v>8252.7773930505482</v>
       </c>
       <c r="U4" s="0">
-        <v>2503.3318713884114</v>
+        <v>6509.240324585985</v>
       </c>
       <c r="V4" s="0">
-        <v>2241.9445449232235</v>
+        <v>8064.8329594263378</v>
       </c>
       <c r="W4" s="0">
-        <v>1816.857413424666</v>
+        <v>10079.56543025238</v>
       </c>
       <c r="X4" s="0">
-        <v>1534.8578593553943</v>
+        <v>9478.1529645888677</v>
       </c>
       <c r="Y4" s="0">
-        <v>2398.4911937793267</v>
+        <v>6899.6821844682399</v>
       </c>
       <c r="Z4" s="0">
-        <v>1255.5800543308778</v>
+        <v>5232.1169697112537</v>
       </c>
       <c r="AA4" s="0">
-        <v>1618.5725914013451</v>
+        <v>9050.5139331006158</v>
       </c>
       <c r="AB4" s="0">
-        <v>2322.7320626740343</v>
+        <v>9467.3676671357862</v>
       </c>
       <c r="AC4" s="0">
-        <v>2720.0699487080537</v>
+        <v>9455.9200749047268</v>
       </c>
       <c r="AD4" s="0">
-        <v>1845.0575647812682</v>
+        <v>5811.6385469781144</v>
       </c>
       <c r="AE4" s="0">
-        <v>1881.0698685171117</v>
+        <v>4163.5749556788951</v>
       </c>
       <c r="AF4" s="0">
-        <v>2143.9731255248148</v>
+        <v>7712.6080021258431</v>
       </c>
     </row>
   </sheetData>
